--- a/ziyuan/共济模板.xlsx
+++ b/ziyuan/共济模板.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Seafile\snmp\共济自定义报表程序\bmsreport\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8235"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>3F_303机房_交流列头柜_3PDU-11A
 总电度</t>
@@ -69,29 +64,29 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt formatCode="yyyy\-mm\-dd" numFmtId="164"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -107,34 +102,26 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -434,24 +421,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5" customWidth="1"/>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.625" customWidth="1"/>
-    <col min="6" max="6" width="22.125" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="11.625"/>
+    <col customWidth="1" max="2" min="2" width="32.5"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="17.125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="18"/>
+    <col customWidth="1" max="5" min="5" width="23.625"/>
+    <col customWidth="1" max="6" min="6" width="22.125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="28.5" r="1" spans="1:6">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -468,7 +459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="28.5" r="2" spans="1:6">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -485,7 +476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -505,452 +496,451 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="n">
         <v>43333</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="n">
         <v>43334</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="n">
         <v>43335</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="n">
         <v>43336</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="n">
         <v>43337</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+    <row r="9" spans="1:6">
+      <c r="A9" s="5" t="n">
         <v>43338</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+    <row r="10" spans="1:6">
+      <c r="A10" s="5" t="n">
         <v>43339</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+    <row r="11" spans="1:6">
+      <c r="A11" s="5" t="n">
         <v>43340</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+    <row r="12" spans="1:6">
+      <c r="A12" s="5" t="n">
         <v>43341</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+    <row r="13" spans="1:6">
+      <c r="A13" s="5" t="n">
         <v>43342</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+    <row r="14" spans="1:6">
+      <c r="A14" s="5" t="n">
         <v>43343</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+    <row r="15" spans="1:6">
+      <c r="A15" s="5" t="n">
         <v>43344</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+    <row r="16" spans="1:6">
+      <c r="A16" s="5" t="n">
         <v>43345</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+    <row r="17" spans="1:6">
+      <c r="A17" s="5" t="n">
         <v>43346</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+    <row r="18" spans="1:6">
+      <c r="A18" s="5" t="n">
         <v>43347</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+    <row r="19" spans="1:6">
+      <c r="A19" s="5" t="n">
         <v>43348</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+    <row r="20" spans="1:6">
+      <c r="A20" s="5" t="n">
         <v>43349</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+    <row r="21" spans="1:6">
+      <c r="A21" s="5" t="n">
         <v>43350</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+    <row r="22" spans="1:6">
+      <c r="A22" s="5" t="n">
         <v>43351</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+    <row r="23" spans="1:6">
+      <c r="A23" s="5" t="n">
         <v>43352</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+    <row r="24" spans="1:6">
+      <c r="A24" s="5" t="n">
         <v>43353</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+    <row r="25" spans="1:6">
+      <c r="A25" s="5" t="n">
         <v>43354</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+    <row r="26" spans="1:6">
+      <c r="A26" s="5" t="n">
         <v>43355</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+    <row r="27" spans="1:6">
+      <c r="A27" s="5" t="n">
         <v>43356</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+    <row r="28" spans="1:6">
+      <c r="A28" s="5" t="n">
         <v>43357</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+    <row r="29" spans="1:6">
+      <c r="A29" s="5" t="n">
         <v>43358</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+    <row r="30" spans="1:6">
+      <c r="A30" s="5" t="n">
         <v>43359</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
+    <row r="31" spans="1:6">
+      <c r="A31" s="5" t="n">
         <v>43360</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>1987</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>19.70000000000001</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31">
-        <f t="shared" ref="F31:F37" si="0">E31*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+        <f>E31*24</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="5" t="n">
         <v>43361</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>1989</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>19.62653061224491</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
+        <f>E32*24</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="5" t="n">
         <v>43362</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>1158</v>
       </c>
-      <c r="C33">
-        <v>19.665517241379309</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
+      <c r="C33" t="n">
+        <v>19.66551724137931</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
+        <f>E33*24</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="5" t="n">
         <v>43363</v>
       </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
+        <f>E34*24</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="5" t="n">
         <v>43364</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>19.899999999999981</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>19.89999999999998</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
+        <f>E35*24</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="5" t="n">
         <v>43365</v>
       </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>19.899999999999981</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>19.89999999999998</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
+        <f>E36*24</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="5" t="n">
         <v>43366</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>19.899999999999981</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>19.89999999999998</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
+        <f>E37*24</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="5" t="n">
         <v>43358</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
+    <row r="39" spans="1:6">
+      <c r="A39" s="5" t="n">
         <v>43359</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
+    <row r="40" spans="1:6">
+      <c r="A40" s="5" t="n">
         <v>43360</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
+    <row r="41" spans="1:6">
+      <c r="A41" s="5" t="n">
         <v>43361</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
+    <row r="42" spans="1:6">
+      <c r="A42" s="5" t="n">
         <v>43362</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
+    <row r="43" spans="1:6">
+      <c r="A43" s="5" t="n">
         <v>43363</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
+    <row r="44" spans="1:6">
+      <c r="A44" s="5" t="n">
         <v>43364</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
+    <row r="45" spans="1:6">
+      <c r="A45" s="5" t="n">
         <v>43365</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
+    <row r="46" spans="1:6">
+      <c r="A46" s="5" t="n">
         <v>43358</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
+    <row r="47" spans="1:6">
+      <c r="A47" s="5" t="n">
         <v>43359</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
+    <row r="48" spans="1:6">
+      <c r="A48" s="5" t="n">
         <v>43360</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
+    <row r="49" spans="1:6">
+      <c r="A49" s="5" t="n">
         <v>43361</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
+    <row r="50" spans="1:6">
+      <c r="A50" s="5" t="n">
         <v>43362</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
+    <row r="51" spans="1:6">
+      <c r="A51" s="5" t="n">
         <v>43363</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
+    <row r="52" spans="1:6">
+      <c r="A52" s="5" t="n">
         <v>43364</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
+    <row r="53" spans="1:6">
+      <c r="A53" s="5" t="n">
         <v>43365</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
+    <row r="54" spans="1:6">
+      <c r="A54" s="5" t="n">
         <v>43366</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
+    <row r="55" spans="1:6">
+      <c r="A55" s="5" t="n">
         <v>43367</v>
       </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>19.89999999999998</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55">
         <f>E55*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="5" t="n">
         <v>43368</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
+    <row r="57" spans="1:6">
+      <c r="A57" s="5" t="n">
         <v>43369</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
+    <row r="58" spans="1:6">
+      <c r="A58" s="5" t="n">
         <v>43370</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="4">
+    <row r="59" spans="1:6">
+      <c r="A59" s="5" t="n">
         <v>43371</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
+    <row r="60" spans="1:6">
+      <c r="A60" s="5" t="n">
         <v>43372</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
+    <row r="61" spans="1:6">
+      <c r="A61" s="5" t="n">
         <v>43373</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
+    <row r="62" spans="1:6">
+      <c r="A62" s="5" t="n">
         <v>43374</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
+    <row r="63" spans="1:6">
+      <c r="A63" s="5" t="n">
         <v>43375</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
+    <row r="64" spans="1:6">
+      <c r="A64" s="5" t="n">
         <v>43376</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
+    <row r="65" spans="1:6">
+      <c r="A65" s="5" t="n">
         <v>43377</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
+    <row r="66" spans="1:6">
+      <c r="A66" s="5" t="n">
         <v>43378</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>